--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H2">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J2">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N2">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O2">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P2">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q2">
-        <v>1.171573641140222</v>
+        <v>65.36043096471056</v>
       </c>
       <c r="R2">
-        <v>10.544162770262</v>
+        <v>588.243878682395</v>
       </c>
       <c r="S2">
-        <v>0.0007441214330745336</v>
+        <v>0.04130198022818597</v>
       </c>
       <c r="T2">
-        <v>0.0007441214330745338</v>
+        <v>0.04130198022818597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H3">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J3">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.466975</v>
       </c>
       <c r="O3">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P3">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q3">
-        <v>26.48325666507221</v>
+        <v>93.14665066719722</v>
       </c>
       <c r="R3">
-        <v>238.34930998565</v>
+        <v>838.319856004775</v>
       </c>
       <c r="S3">
-        <v>0.0168207598823364</v>
+        <v>0.05886040020537005</v>
       </c>
       <c r="T3">
-        <v>0.01682075988233641</v>
+        <v>0.05886040020537006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H4">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I4">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J4">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N4">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O4">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P4">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q4">
-        <v>47.32789171053088</v>
+        <v>115.6242252678351</v>
       </c>
       <c r="R4">
-        <v>425.951025394778</v>
+        <v>1040.618027410516</v>
       </c>
       <c r="S4">
-        <v>0.03006016640128684</v>
+        <v>0.07306422854662391</v>
       </c>
       <c r="T4">
-        <v>0.03006016640128684</v>
+        <v>0.07306422854662391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.91616466666666</v>
+        <v>80.60050966666667</v>
       </c>
       <c r="H5">
-        <v>68.74849399999999</v>
+        <v>241.801529</v>
       </c>
       <c r="I5">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="J5">
-        <v>0.05560000359891543</v>
+        <v>0.17420496858261</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N5">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O5">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P5">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q5">
-        <v>12.55607980845044</v>
+        <v>1.548255190187</v>
       </c>
       <c r="R5">
-        <v>113.004718276054</v>
+        <v>13.934296711683</v>
       </c>
       <c r="S5">
-        <v>0.007974955882217648</v>
+        <v>0.0009783596024300321</v>
       </c>
       <c r="T5">
-        <v>0.007974955882217648</v>
+        <v>0.0009783596024300321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H6">
         <v>280.043709</v>
       </c>
       <c r="I6">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J6">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N6">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O6">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P6">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q6">
-        <v>4.772349308939668</v>
+        <v>75.69752592092165</v>
       </c>
       <c r="R6">
-        <v>42.95114378045701</v>
+        <v>681.2777332882949</v>
       </c>
       <c r="S6">
-        <v>0.003031143141325943</v>
+        <v>0.04783410501984816</v>
       </c>
       <c r="T6">
-        <v>0.003031143141325944</v>
+        <v>0.04783410501984817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H7">
         <v>280.043709</v>
       </c>
       <c r="I7">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J7">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +877,22 @@
         <v>3.466975</v>
       </c>
       <c r="O7">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P7">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q7">
-        <v>107.8782820011417</v>
+        <v>107.8782820011416</v>
       </c>
       <c r="R7">
-        <v>970.904538010275</v>
+        <v>970.9045380102748</v>
       </c>
       <c r="S7">
-        <v>0.06851856253968111</v>
+        <v>0.06816948120595295</v>
       </c>
       <c r="T7">
-        <v>0.06851856253968112</v>
+        <v>0.06816948120595297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H8">
         <v>280.043709</v>
       </c>
       <c r="I8">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J8">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N8">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O8">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P8">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q8">
-        <v>192.7879079615537</v>
+        <v>133.9108029141373</v>
       </c>
       <c r="R8">
-        <v>1735.091171653983</v>
+        <v>1205.197226227236</v>
       </c>
       <c r="S8">
-        <v>0.1224486530886561</v>
+        <v>0.08461971949490954</v>
       </c>
       <c r="T8">
-        <v>0.122448653088656</v>
+        <v>0.08461971949490954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>93.34790300000002</v>
+        <v>93.34790299999999</v>
       </c>
       <c r="H9">
         <v>280.043709</v>
       </c>
       <c r="I9">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="J9">
-        <v>0.2264839609178003</v>
+        <v>0.2017563980255169</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N9">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O9">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P9">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q9">
-        <v>51.14659180837435</v>
+        <v>1.793119868727</v>
       </c>
       <c r="R9">
-        <v>460.3193262753691</v>
+        <v>16.138078818543</v>
       </c>
       <c r="S9">
-        <v>0.03248560214813721</v>
+        <v>0.001133092304806193</v>
       </c>
       <c r="T9">
-        <v>0.03248560214813721</v>
+        <v>0.001133092304806193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H10">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I10">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J10">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N10">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O10">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P10">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q10">
-        <v>4.101665659016445</v>
+        <v>66.72938356004555</v>
       </c>
       <c r="R10">
-        <v>36.914990931148</v>
+        <v>600.5644520404098</v>
       </c>
       <c r="S10">
-        <v>0.002605160461965888</v>
+        <v>0.04216703653505727</v>
       </c>
       <c r="T10">
-        <v>0.002605160461965888</v>
+        <v>0.04216703653505727</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H11">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I11">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J11">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>3.466975</v>
       </c>
       <c r="O11">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P11">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q11">
-        <v>92.71757283334443</v>
+        <v>95.0975764382722</v>
       </c>
       <c r="R11">
-        <v>834.4581555000999</v>
+        <v>855.8781879444498</v>
       </c>
       <c r="S11">
-        <v>0.05888928424575501</v>
+        <v>0.06009321180765435</v>
       </c>
       <c r="T11">
-        <v>0.05888928424575501</v>
+        <v>0.06009321180765436</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H12">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I12">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J12">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N12">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O12">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P12">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q12">
-        <v>165.6943971134458</v>
+        <v>118.0459363999031</v>
       </c>
       <c r="R12">
-        <v>1491.249574021012</v>
+        <v>1062.413427599128</v>
       </c>
       <c r="S12">
-        <v>0.1052402921189665</v>
+        <v>0.07459453463271831</v>
       </c>
       <c r="T12">
-        <v>0.1052402921189665</v>
+        <v>0.07459453463271831</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.22922533333333</v>
+        <v>82.28866066666666</v>
       </c>
       <c r="H13">
-        <v>240.687676</v>
+        <v>246.865982</v>
       </c>
       <c r="I13">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="J13">
-        <v>0.194654964395505</v>
+        <v>0.177853633995942</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N13">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O13">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P13">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q13">
-        <v>43.95868902621289</v>
+        <v>1.580682882746</v>
       </c>
       <c r="R13">
-        <v>395.628201235916</v>
+        <v>14.226145944714</v>
       </c>
       <c r="S13">
-        <v>0.02792022756881766</v>
+        <v>0.0009988510205120307</v>
       </c>
       <c r="T13">
-        <v>0.02792022756881766</v>
+        <v>0.0009988510205120309</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H14">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I14">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J14">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N14">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O14">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P14">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q14">
-        <v>3.980595960986333</v>
+        <v>36.83486244273333</v>
       </c>
       <c r="R14">
-        <v>35.82536364887699</v>
+        <v>331.5137619846</v>
       </c>
       <c r="S14">
-        <v>0.002528263411676853</v>
+        <v>0.02327635754328381</v>
       </c>
       <c r="T14">
-        <v>0.002528263411676853</v>
+        <v>0.02327635754328382</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H15">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I15">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J15">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.466975</v>
       </c>
       <c r="O15">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P15">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q15">
-        <v>89.98080941130831</v>
+        <v>52.49420809633332</v>
       </c>
       <c r="R15">
-        <v>809.8272847017748</v>
+        <v>472.4478728669999</v>
       </c>
       <c r="S15">
-        <v>0.05715103728621307</v>
+        <v>0.03317167149738728</v>
       </c>
       <c r="T15">
-        <v>0.05715103728621307</v>
+        <v>0.03317167149738729</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H16">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I16">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J16">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N16">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O16">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P16">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q16">
-        <v>160.8035619524403</v>
+        <v>65.16178626618667</v>
       </c>
       <c r="R16">
-        <v>1447.232057571963</v>
+        <v>586.4560763956799</v>
       </c>
       <c r="S16">
-        <v>0.1021338930492531</v>
+        <v>0.04117645444309288</v>
       </c>
       <c r="T16">
-        <v>0.1021338930492531</v>
+        <v>0.04117645444309288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.86108299999999</v>
+        <v>45.42364</v>
       </c>
       <c r="H17">
-        <v>233.583249</v>
+        <v>136.27092</v>
       </c>
       <c r="I17">
-        <v>0.1889092942900882</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="J17">
-        <v>0.1889092942900881</v>
+        <v>0.09817585288024938</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N17">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O17">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P17">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q17">
-        <v>42.66115147716767</v>
+        <v>0.87254270076</v>
       </c>
       <c r="R17">
-        <v>383.950363294509</v>
+        <v>7.852884306839999</v>
       </c>
       <c r="S17">
-        <v>0.02709610054294513</v>
+        <v>0.0005513693964853906</v>
       </c>
       <c r="T17">
-        <v>0.02709610054294512</v>
+        <v>0.0005513693964853908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H18">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I18">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J18">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N18">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O18">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P18">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q18">
-        <v>2.905699081754333</v>
+        <v>51.58131015868999</v>
       </c>
       <c r="R18">
-        <v>26.151291735789</v>
+        <v>464.2317914282099</v>
       </c>
       <c r="S18">
-        <v>0.00184554592974118</v>
+        <v>0.03259480117975957</v>
       </c>
       <c r="T18">
-        <v>0.001845545929741181</v>
+        <v>0.03259480117975957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H19">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I19">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J19">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>3.466975</v>
       </c>
       <c r="O19">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P19">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q19">
-        <v>65.68291729290833</v>
+        <v>73.50970927504999</v>
       </c>
       <c r="R19">
-        <v>591.1462556361749</v>
+        <v>661.5873834754499</v>
       </c>
       <c r="S19">
-        <v>0.04171830504563663</v>
+        <v>0.04645159945008722</v>
       </c>
       <c r="T19">
-        <v>0.04171830504563664</v>
+        <v>0.04645159945008723</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H20">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I20">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J20">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N20">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O20">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P20">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q20">
-        <v>117.3811074742323</v>
+        <v>91.248618428152</v>
       </c>
       <c r="R20">
-        <v>1056.429967268091</v>
+        <v>821.237565853368</v>
       </c>
       <c r="S20">
-        <v>0.07455425322184034</v>
+        <v>0.05766101261179939</v>
       </c>
       <c r="T20">
-        <v>0.07455425322184034</v>
+        <v>0.05766101261179939</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.835931</v>
+        <v>63.60851399999999</v>
       </c>
       <c r="H21">
-        <v>170.507793</v>
+        <v>190.825542</v>
       </c>
       <c r="I21">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="J21">
-        <v>0.1378973320410935</v>
+        <v>0.1374795175462663</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N21">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O21">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P21">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q21">
-        <v>31.14118335262367</v>
+        <v>1.221855945426</v>
       </c>
       <c r="R21">
-        <v>280.270650173613</v>
+        <v>10.996703508834</v>
       </c>
       <c r="S21">
-        <v>0.01977922784387538</v>
+        <v>0.0007721043046200727</v>
       </c>
       <c r="T21">
-        <v>0.01977922784387538</v>
+        <v>0.0007721043046200728</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H22">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I22">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J22">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.05112433333333333</v>
+        <v>0.8109183333333333</v>
       </c>
       <c r="N22">
-        <v>0.153373</v>
+        <v>2.432755</v>
       </c>
       <c r="O22">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="P22">
-        <v>0.01338347814583683</v>
+        <v>0.2370884169621149</v>
       </c>
       <c r="Q22">
-        <v>4.139583350065777</v>
+        <v>78.98917804836499</v>
       </c>
       <c r="R22">
-        <v>37.256250150592</v>
+        <v>710.902602435285</v>
       </c>
       <c r="S22">
-        <v>0.002629243768052432</v>
+        <v>0.04991413645598013</v>
       </c>
       <c r="T22">
-        <v>0.002629243768052433</v>
+        <v>0.04991413645598013</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H23">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I23">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J23">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>3.466975</v>
       </c>
       <c r="O23">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239538</v>
       </c>
       <c r="P23">
-        <v>0.3025316329775296</v>
+        <v>0.3378801459239539</v>
       </c>
       <c r="Q23">
-        <v>93.57469688337777</v>
+        <v>112.569291015425</v>
       </c>
       <c r="R23">
-        <v>842.1722719503999</v>
+        <v>1013.123619138825</v>
       </c>
       <c r="S23">
-        <v>0.05943368397790733</v>
+        <v>0.07113378175750196</v>
       </c>
       <c r="T23">
-        <v>0.05943368397790733</v>
+        <v>0.07113378175750197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H24">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I24">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J24">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.065262333333334</v>
+        <v>1.434534666666667</v>
       </c>
       <c r="N24">
-        <v>6.195787</v>
+        <v>4.303604</v>
       </c>
       <c r="O24">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="P24">
-        <v>0.5406504398476912</v>
+        <v>0.4194152964814894</v>
       </c>
       <c r="Q24">
-        <v>167.2261526197831</v>
+        <v>139.733817258892</v>
       </c>
       <c r="R24">
-        <v>1505.035373578048</v>
+        <v>1257.604355330028</v>
       </c>
       <c r="S24">
-        <v>0.1062131819676884</v>
+        <v>0.08829934675234535</v>
       </c>
       <c r="T24">
-        <v>0.1062131819676884</v>
+        <v>0.08829934675234535</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>80.97090133333333</v>
+        <v>97.40706899999999</v>
       </c>
       <c r="H25">
-        <v>242.912704</v>
+        <v>292.221207</v>
       </c>
       <c r="I25">
-        <v>0.1964544447565976</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="J25">
-        <v>0.1964544447565975</v>
+        <v>0.2105296289694155</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.5479136666666667</v>
+        <v>0.019209</v>
       </c>
       <c r="N25">
-        <v>1.643741</v>
+        <v>0.057627</v>
       </c>
       <c r="O25">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="P25">
-        <v>0.1434344490289424</v>
+        <v>0.005616140632441737</v>
       </c>
       <c r="Q25">
-        <v>44.36506344285156</v>
+        <v>1.871092388421</v>
       </c>
       <c r="R25">
-        <v>399.285570985664</v>
+        <v>16.839831495789</v>
       </c>
       <c r="S25">
-        <v>0.02817833504294937</v>
+        <v>0.001182364003588017</v>
       </c>
       <c r="T25">
-        <v>0.02817833504294937</v>
+        <v>0.001182364003588017</v>
       </c>
     </row>
   </sheetData>
